--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicr9\Documents\sku-details-fetch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48761FEF-DCA8-41EA-BBBB-4FFAD7B41ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE85CA2-5B62-4233-B002-F451D91B98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{B3545335-BCB6-4008-9910-CFB659629A25}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>skucode</t>
   </si>
@@ -210,55 +210,292 @@
     <t>SP07OAKHLDP1-EOS</t>
   </si>
   <si>
-    <t>SP07OAKHLDP4-SIREN</t>
-  </si>
-  <si>
-    <t>SP08MORSE</t>
-  </si>
-  <si>
-    <t>SP08VIENNADT</t>
-  </si>
-  <si>
-    <t>SP08CAMELDT</t>
-  </si>
-  <si>
-    <t>SP08ISSACDT</t>
-  </si>
-  <si>
-    <t>SP07BARNSTABLEDT</t>
-  </si>
-  <si>
-    <t>SP08BARNSTABLEDT</t>
-  </si>
-  <si>
-    <t>SP08-RS-PIERCE-WAL</t>
-  </si>
-  <si>
-    <t>SP07AU12-HESTIA</t>
-  </si>
-  <si>
-    <t>SP08AU12-HESTIA</t>
-  </si>
-  <si>
-    <t>SP07AU9-GAEA</t>
-  </si>
-  <si>
-    <t>SP08AU9-GAEA</t>
-  </si>
-  <si>
-    <t>SP07-RS-VIC2PLUS</t>
-  </si>
-  <si>
-    <t>SP08-RS-VIC2PLUS</t>
-  </si>
-  <si>
-    <t>SP09-RS-VIC2PLUS</t>
-  </si>
-  <si>
-    <t>SP09-RS-CHALLENGPLUS-CHESTNUT</t>
-  </si>
-  <si>
-    <t>SP08-RS--BLK</t>
+    <t>214PB-JL-FNTSY-WHT</t>
+  </si>
+  <si>
+    <t>2SB-JL-PREM</t>
+  </si>
+  <si>
+    <t>214PB-JL-INK/DSL</t>
+  </si>
+  <si>
+    <t>AK-1458 BED-TB-W150CMB01-OAK</t>
+  </si>
+  <si>
+    <t>BUNKBED-TBYS-A809W135CM-WOOD</t>
+  </si>
+  <si>
+    <t>DB-TB-DIA1D5M-CLF</t>
+  </si>
+  <si>
+    <t>EBBALL-TB-CDP140KID-BLU</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-360D-PUR</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-360D-ORG</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-UP40IN-BLK</t>
+  </si>
+  <si>
+    <t>MPLAN-DOGHOUSE-87</t>
+  </si>
+  <si>
+    <t>BK-ALBB-161NCH3W-WIN</t>
+  </si>
+  <si>
+    <t>TNET-TB-31313WMAT-RED</t>
+  </si>
+  <si>
+    <t>CHAIR-TBLHA819-WHTGRY</t>
+  </si>
+  <si>
+    <t>FOLDLAD-TB-275T3M-BWHT</t>
+  </si>
+  <si>
+    <t>SBAG-TBHOTMAN-KID-BLK-BASE</t>
+  </si>
+  <si>
+    <t>SBAG-TBHOTMAN-KID-BLK-TOP</t>
+  </si>
+  <si>
+    <t>AH044IN1-TB-M48190N-BBLU</t>
+  </si>
+  <si>
+    <t>BK-TB-20INCH3W-BEIGE</t>
+  </si>
+  <si>
+    <t>BK-TB-20INCH3W-BLK</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN013-WHT</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN004-GRY</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN003-GRY</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN005-GRY</t>
+  </si>
+  <si>
+    <t>MPLAN-PLAYGROUND-180-BLOWER</t>
+  </si>
+  <si>
+    <t>SAUNA-AN-YUF001-OAK</t>
+  </si>
+  <si>
+    <t>SAUNA-AN-PPF004-ORG</t>
+  </si>
+  <si>
+    <t>BK-ALBB14INCHBS-WHT</t>
+  </si>
+  <si>
+    <t>AH065-TB-PL1634-BLK</t>
+  </si>
+  <si>
+    <t>MPLAN-TENT-337</t>
+  </si>
+  <si>
+    <t>BLOWER-MPLAN-TENT-337-550W</t>
+  </si>
+  <si>
+    <t>SPROOM-TB-BLF17-WHT</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN018-GRY</t>
+  </si>
+  <si>
+    <t>PBED-MN-MN015-BLK</t>
+  </si>
+  <si>
+    <t>GAZEBO-GM-4D6X2D7S220-WHT</t>
+  </si>
+  <si>
+    <t>GAZEBO-LG-3X3RAL7043-BLK</t>
+  </si>
+  <si>
+    <t>APLAN-FIT-9</t>
+  </si>
+  <si>
+    <t>GOLFCLUB56-TB-SG002-SLV</t>
+  </si>
+  <si>
+    <t>PARTS-SC-A11-SA-TYRE</t>
+  </si>
+  <si>
+    <t>GOLFPR-PGM-1D5X3M-GRE</t>
+  </si>
+  <si>
+    <t>CCF-TBKEKE-H001FULL-WOOD</t>
+  </si>
+  <si>
+    <t>FU-ML-MJ-T111</t>
+  </si>
+  <si>
+    <t>BK-TB-20INCH3W-RED</t>
+  </si>
+  <si>
+    <t>P-CD-S8003-LEG</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-2X2X4M-BLU-ROD</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-2X2X4M-BLU-ACC</t>
+  </si>
+  <si>
+    <t>TRAMPO-TB-2X2X4M-BLU-TUBE</t>
+  </si>
+  <si>
+    <t>BRACKET-TB-CCARALU3U20-PNK</t>
+  </si>
+  <si>
+    <t>SHADE-BLK-UMBBELLA</t>
+  </si>
+  <si>
+    <t>LIGHT-9BALL</t>
+  </si>
+  <si>
+    <t>AIRBLOWER-YJ-257-680W</t>
+  </si>
+  <si>
+    <t>TENT-YJ-257</t>
+  </si>
+  <si>
+    <t>MPLAN-TENT-257-TUBE</t>
+  </si>
+  <si>
+    <t>TMILL-EM-EM7900B-BLKYLW</t>
+  </si>
+  <si>
+    <t>MC-KPR-MCA8-BRN</t>
+  </si>
+  <si>
+    <t>CATTERY-TB-WOOD-A</t>
+  </si>
+  <si>
+    <t>CATTERY-TB-WOOD-B</t>
+  </si>
+  <si>
+    <t>TT-DF-ZCW-BLUBLU-FRAMEA</t>
+  </si>
+  <si>
+    <t>TT-DF-ZCW-BLUBLU-TOP</t>
+  </si>
+  <si>
+    <t>TT-DF-233-BLBGRY</t>
+  </si>
+  <si>
+    <t>CUE58-JL-GHA007-BLK</t>
+  </si>
+  <si>
+    <t>PT-TB-KID69CM-WALGRE</t>
+  </si>
+  <si>
+    <t>SCHAIR-TB-DUBLE-BIRCH</t>
+  </si>
+  <si>
+    <t>BK-TB-20INCH-YLW</t>
+  </si>
+  <si>
+    <t>BK-TB-26INCH-YLW</t>
+  </si>
+  <si>
+    <t>MPLAN-GAZEBO-363-ACC</t>
+  </si>
+  <si>
+    <t>MPLAN-GAZEBO-363-REAM</t>
+  </si>
+  <si>
+    <t>DESK-TB-2D4X0D9M-WALBRN</t>
+  </si>
+  <si>
+    <t>FURNI-CHAIR-JL-S8003-BLK-RED</t>
+  </si>
+  <si>
+    <t>CCS-TB-A8-WAL</t>
+  </si>
+  <si>
+    <t>SCHAIR-TB-HKSINGLE-WHT</t>
+  </si>
+  <si>
+    <t>RCHAIR-TB-MOON-WOOD</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-FOOTEND</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-TATAMI</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-CABT</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-AIRBOARD</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-BEDSTEAD</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-MATTESS</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-HEADEND</t>
+  </si>
+  <si>
+    <t>BED-TB-L180CMP30-COF-AIRROD</t>
+  </si>
+  <si>
+    <t>EF-YCT-F2036A-BLK</t>
+  </si>
+  <si>
+    <t>FIT-JH-D011-GRY-TRAME-B</t>
+  </si>
+  <si>
+    <t>FIT-JH-D011-GRY-FRAME-A</t>
+  </si>
+  <si>
+    <t>CWEIGHT-30kg</t>
+  </si>
+  <si>
+    <t>FIT-JH-D05-GRY-FRAME-B</t>
+  </si>
+  <si>
+    <t>FIT-JH-D05-GRY-FRAME-A</t>
+  </si>
+  <si>
+    <t>CWEIGHT-43kg</t>
+  </si>
+  <si>
+    <t>MPLAN-PLAYGROUND-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AIRBLOWER-YX-550W</t>
+  </si>
+  <si>
+    <t>JUMPBED-YX-0119-WHT-AIRBLOWER</t>
+  </si>
+  <si>
+    <t>JUMPBED-YX-0119-WHT</t>
+  </si>
+  <si>
+    <t>STC-EM-EM3028A-BLK</t>
+  </si>
+  <si>
+    <t>BS-MD-M021A2-BLK</t>
+  </si>
+  <si>
+    <t>GRACUE-1-2-JH-WIN</t>
+  </si>
+  <si>
+    <t>GRACUE-1-2-JH-PNK</t>
+  </si>
+  <si>
+    <t>MPLAN-TENT-402</t>
   </si>
 </sst>
 </file>
@@ -301,13 +538,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -617,15 +871,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA62D4B-9AE9-4C56-A3A8-BE9CD4D6592A}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
@@ -784,172 +1038,490 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>236</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>210</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>17</v>
-      </c>
-      <c r="M2">
+      <c r="A2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N2">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>31</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
-      <c r="R2">
-        <v>34</v>
-      </c>
-      <c r="S2">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>24.5</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>39</v>
-      </c>
-      <c r="W2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="X2">
-        <v>108</v>
-      </c>
-      <c r="Y2">
-        <v>12</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>73</v>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
